--- a/biology/Botanique/S.Julia/S.Julia.xlsx
+++ b/biology/Botanique/S.Julia/S.Julia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Julia Sang est une botaniste malaisienne.
-Elle a découvert et nommé de nombreuses plantes (104 d'après l'IPNI                (23 avril 2022)[1]), notamment des genres Actinodaphne et Begonia[2].
+Elle a découvert et nommé de nombreuses plantes (104 d'après l'IPNI                (23 avril 2022)), notamment des genres Actinodaphne et Begonia.
 </t>
         </is>
       </c>
@@ -514,10 +526,49 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ouvrages
-(en) Ruth Kiew, Julia Sang, Rimi Repin et Joffre Ali Ahmad, A guide to begonias of Borneo, Natural History Publications (Borneo), 2015 (ISBN 978-983-812-160-6 et 978-983-812-161-3, OCLC 933759416, lire en ligne)
-Articles
-(en) Julia Sang et Ruth Kiew, « DIVERSITY OF BEGONIA (BEGONIACEAE) IN BORNEO : HOW MANY  SPECIES ARE THERE? », REINWARDTIA, vol. 14, no 1,‎ 2014, p. 233 (ISSN 0034-365X, lire en ligne, consulté le 30 décembre 2020)
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(en) Ruth Kiew, Julia Sang, Rimi Repin et Joffre Ali Ahmad, A guide to begonias of Borneo, Natural History Publications (Borneo), 2015 (ISBN 978-983-812-160-6 et 978-983-812-161-3, OCLC 933759416, lire en ligne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>S.Julia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S.Julia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Publications (sélection)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) Julia Sang et Ruth Kiew, « DIVERSITY OF BEGONIA (BEGONIACEAE) IN BORNEO : HOW MANY  SPECIES ARE THERE? », REINWARDTIA, vol. 14, no 1,‎ 2014, p. 233 (ISSN 0034-365X, lire en ligne, consulté le 30 décembre 2020)
 (en) JULIA SANG et RUTH KIEW, « Begonia (Begoniaceae) from Batang Ai National Park and vicinity, Sarawak, Borneo, including six new species », Phytotaxa, vol. 252, no 1,‎ 2016, p. 17 (ISSN 1179-3155, lire en ligne, consulté le 30 décembre 2020)
 (en) JULIA SANG, RUTH KIEW et LING CHEA YIING, « Six new species of Begonia (Begoniaceae) from Central Sarawak, Borneo », Phytotaxa, vol. 277, no 2,‎ 2016, p. 171 (ISSN 1179-3155, lire en ligne, consulté le 30 décembre 2020)
 (en) JULIA SANG, RUTH KIEW et LING CHEA YIING, « The Begonia flora of Gunung Mulu and Gunung Buda National Parks, Sarawak, Borneo, including five new species », Phytotaxa, vol. 381, no 1,‎ 2018, p. 58 (ISSN 1179-3155, lire en ligne, consulté le 30 décembre 2020)
